--- a/Общий на 4500 об.xlsx
+++ b/Общий на 4500 об.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Влад\Desktop\Предпроф 2026\на 4500 об\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/470079523a51d463/Desktop/Education/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4412B2-6B9F-4551-9D85-597520D8F45C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4C3EA6-83F2-41D4-9FDE-FA72987E5006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="5530" windowWidth="28800" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3 экрана" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,13 @@
     <sheet name="Экран 2" sheetId="2" r:id="rId3"/>
     <sheet name="Экран 3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'3 экрана'!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'3 экрана'!$B$2:$B$366</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'3 экрана'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'3 экрана'!$B$2:$B$366</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,6 +120,834 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Распределепние частиц по размеру</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Распределепние частиц по размеру</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{3D5F086F-64B9-46C7-A42D-F37E033C56AF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Диаметр</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{7CEE75E6-259A-4E8D-BEB2-E226F8DCB66A}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:rich>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>Диапазон размеров </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>[</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>мм</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                  </a:rPr>
+                  <a:t>]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:rich>
+          </cx:tx>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Число частиц</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Число частиц</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:title>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:endParaRPr>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>631824</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Диаграмма 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4ABEB7-7F39-D88F-4820-16E1CEA17B42}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3070224" y="1638300"/>
+              <a:ext cx="10125076" cy="3232150"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ru-RU" sz="1100"/>
+                <a:t>Эта диаграмма недоступна в вашей версии Excel.
+Изменение этой фигуры или сохранение книги в другом формате приведет к остаточному повреждению диаграммы.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,15 +1216,15 @@
   <dimension ref="A1:G366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -416,7 +1250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>5.5400000000000002E-4</v>
       </c>
@@ -434,7 +1268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7.1599999999999995E-4</v>
       </c>
@@ -452,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -470,7 +1304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.2800000000000002E-4</v>
       </c>
@@ -487,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1E-3</v>
       </c>
@@ -495,7 +1329,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -503,7 +1337,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -511,7 +1345,7 @@
         <v>2.2030863000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -519,7 +1353,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1E-3</v>
       </c>
@@ -527,7 +1361,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4.5100000000000001E-4</v>
       </c>
@@ -535,7 +1369,7 @@
         <v>2.3949831000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -543,7 +1377,7 @@
         <v>2.5726055000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7.3899999999999997E-4</v>
       </c>
@@ -551,7 +1385,7 @@
         <v>3.0678634999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -559,7 +1393,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>6.5799999999999995E-4</v>
       </c>
@@ -567,7 +1401,7 @@
         <v>2.8953427E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -575,7 +1409,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -583,7 +1417,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -591,7 +1425,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -599,7 +1433,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1E-3</v>
       </c>
@@ -607,7 +1441,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -615,7 +1449,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>5.31E-4</v>
       </c>
@@ -623,7 +1457,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -631,7 +1465,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1E-3</v>
       </c>
@@ -639,7 +1473,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -647,7 +1481,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>8.7799999999999998E-4</v>
       </c>
@@ -655,7 +1489,7 @@
         <v>3.3431268E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>8.6600000000000002E-4</v>
       </c>
@@ -663,7 +1497,7 @@
         <v>3.3211554999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -671,7 +1505,7 @@
         <v>2.1352916999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1E-3</v>
       </c>
@@ -679,7 +1513,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -687,7 +1521,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1E-3</v>
       </c>
@@ -695,7 +1529,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -703,7 +1537,7 @@
         <v>2.4253591000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>5.31E-4</v>
       </c>
@@ -711,7 +1545,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>5.31E-4</v>
       </c>
@@ -719,7 +1553,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>8.7799999999999998E-4</v>
       </c>
@@ -727,7 +1561,7 @@
         <v>3.3431268E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -735,7 +1569,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -743,7 +1577,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1E-3</v>
       </c>
@@ -751,7 +1585,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7.1599999999999995E-4</v>
       </c>
@@ -759,7 +1593,7 @@
         <v>3.0195476999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1E-3</v>
       </c>
@@ -767,7 +1601,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1E-3</v>
       </c>
@@ -775,7 +1609,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1E-3</v>
       </c>
@@ -783,7 +1617,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -791,7 +1625,7 @@
         <v>3.0918412999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -799,7 +1633,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1E-3</v>
       </c>
@@ -807,7 +1641,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1E-3</v>
       </c>
@@ -815,7 +1649,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -823,7 +1657,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
@@ -831,7 +1665,7 @@
         <v>2.8440975E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1E-3</v>
       </c>
@@ -839,7 +1673,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
@@ -847,7 +1681,7 @@
         <v>2.8440975E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -855,7 +1689,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -863,7 +1697,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -871,7 +1705,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>4.5100000000000001E-4</v>
       </c>
@@ -879,7 +1713,7 @@
         <v>2.3949831000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>8.7799999999999998E-4</v>
       </c>
@@ -887,7 +1721,7 @@
         <v>3.3431268E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>7.3899999999999997E-4</v>
       </c>
@@ -895,7 +1729,7 @@
         <v>3.0678634999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>9.8200000000000002E-4</v>
       </c>
@@ -903,7 +1737,7 @@
         <v>3.5356281000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -911,7 +1745,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -919,7 +1753,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -927,7 +1761,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>6.8199999999999999E-4</v>
       </c>
@@ -935,7 +1769,7 @@
         <v>2.9456963999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -943,7 +1777,7 @@
         <v>2.2030863000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>8.0900000000000004E-4</v>
       </c>
@@ -951,7 +1785,7 @@
         <v>3.2084485000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -959,7 +1793,7 @@
         <v>2.4253591000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1E-3</v>
       </c>
@@ -967,7 +1801,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -975,7 +1809,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -983,7 +1817,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -991,7 +1825,7 @@
         <v>2.4253591000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1E-3</v>
       </c>
@@ -999,7 +1833,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -1007,7 +1841,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -1015,7 +1849,7 @@
         <v>2.5726055000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -1023,7 +1857,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -1031,7 +1865,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -1039,7 +1873,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>7.3899999999999997E-4</v>
       </c>
@@ -1047,7 +1881,7 @@
         <v>3.0678634999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -1055,7 +1889,7 @@
         <v>2.7653348000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1E-3</v>
       </c>
@@ -1063,7 +1897,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>1E-3</v>
       </c>
@@ -1071,7 +1905,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -1079,7 +1913,7 @@
         <v>3.0918412999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -1087,7 +1921,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -1095,7 +1929,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1E-3</v>
       </c>
@@ -1103,7 +1937,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1E-3</v>
       </c>
@@ -1111,7 +1945,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>6.8199999999999999E-4</v>
       </c>
@@ -1119,7 +1953,7 @@
         <v>2.9456963999999999E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1127,7 +1961,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -1135,7 +1969,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>6.9300000000000004E-4</v>
       </c>
@@ -1143,7 +1977,7 @@
         <v>2.9704461000000001E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1E-3</v>
       </c>
@@ -1151,7 +1985,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -1159,7 +1993,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>9.1299999999999997E-4</v>
       </c>
@@ -1167,7 +2001,7 @@
         <v>3.4085642999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1175,7 +2009,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -1183,7 +2017,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -1191,7 +2025,7 @@
         <v>3.2539606999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -1199,7 +2033,7 @@
         <v>2.8180126E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1207,7 +2041,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -1215,7 +2049,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>8.0900000000000004E-4</v>
       </c>
@@ -1223,7 +2057,7 @@
         <v>3.2084485000000003E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -1231,7 +2065,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -1239,7 +2073,7 @@
         <v>3.0918412999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>6.1200000000000002E-4</v>
       </c>
@@ -1247,7 +2081,7 @@
         <v>2.7919119999999999E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>4.0400000000000001E-4</v>
       </c>
@@ -1255,7 +2089,7 @@
         <v>2.268856E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>7.2800000000000002E-4</v>
       </c>
@@ -1263,7 +2097,7 @@
         <v>3.0439061E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -1271,7 +2105,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -1279,7 +2113,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>4.8500000000000003E-4</v>
       </c>
@@ -1287,7 +2121,7 @@
         <v>2.4852534999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>1E-3</v>
       </c>
@@ -1295,7 +2129,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1E-3</v>
       </c>
@@ -1303,7 +2137,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -1311,7 +2145,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>8.1999999999999998E-4</v>
       </c>
@@ -1319,7 +2153,7 @@
         <v>3.2313832000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1327,7 +2161,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -1335,7 +2169,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -1343,7 +2177,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>4.8500000000000003E-4</v>
       </c>
@@ -1351,7 +2185,7 @@
         <v>2.4852534999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
@@ -1359,7 +2193,7 @@
         <v>2.8440975E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -1367,7 +2201,7 @@
         <v>2.1352916999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -1375,7 +2209,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>9.01E-4</v>
       </c>
@@ -1383,7 +2217,7 @@
         <v>3.3868295999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>7.6199999999999998E-4</v>
       </c>
@@ -1391,7 +2225,7 @@
         <v>3.1154301999999998E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>5.8900000000000001E-4</v>
       </c>
@@ -1399,7 +2233,7 @@
         <v>2.7387321999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -1407,7 +2241,7 @@
         <v>3.2539606999999998E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -1415,7 +2249,7 @@
         <v>2.4253591000000001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -1423,7 +2257,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -1431,7 +2265,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -1439,7 +2273,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -1447,7 +2281,7 @@
         <v>2.5726055000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -1455,7 +2289,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -1463,7 +2297,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -1471,7 +2305,7 @@
         <v>2.7653348000000001E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>5.8900000000000001E-4</v>
       </c>
@@ -1479,7 +2313,7 @@
         <v>2.7387321999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>4.9700000000000005E-4</v>
       </c>
@@ -1487,7 +2321,7 @@
         <v>2.5147923999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -1495,7 +2329,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -1503,7 +2337,7 @@
         <v>2.8180126E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -1511,7 +2345,7 @@
         <v>2.1352916999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>4.0400000000000001E-4</v>
       </c>
@@ -1519,7 +2353,7 @@
         <v>2.268856E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>5.31E-4</v>
       </c>
@@ -1527,7 +2361,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -1535,7 +2369,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -1543,7 +2377,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1551,7 +2385,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>7.7399999999999995E-4</v>
       </c>
@@ -1559,7 +2393,7 @@
         <v>3.1390446000000002E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>9.4700000000000003E-4</v>
       </c>
@@ -1567,7 +2401,7 @@
         <v>3.4725856999999999E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>1E-3</v>
       </c>
@@ -1575,7 +2409,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -1583,7 +2417,7 @@
         <v>2.8180126E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -1591,7 +2425,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -1599,7 +2433,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>9.7000000000000005E-4</v>
       </c>
@@ -1607,7 +2441,7 @@
         <v>3.5146792000000003E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1E-3</v>
       </c>
@@ -1615,7 +2449,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1623,7 +2457,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1E-3</v>
       </c>
@@ -1631,7 +2465,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -1639,7 +2473,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>1E-3</v>
       </c>
@@ -1647,7 +2481,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -1655,7 +2489,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -1663,7 +2497,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -1671,7 +2505,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1679,7 +2513,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -1687,7 +2521,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>1E-3</v>
       </c>
@@ -1695,7 +2529,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>1E-3</v>
       </c>
@@ -1703,7 +2537,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -1711,7 +2545,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>7.5199999999999996E-4</v>
       </c>
@@ -1719,7 +2553,7 @@
         <v>3.0945169000000002E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -1727,7 +2561,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -1735,7 +2569,7 @@
         <v>2.4240463E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>7.18E-4</v>
       </c>
@@ -1743,7 +2577,7 @@
         <v>3.0233402999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -1751,7 +2585,7 @@
         <v>2.4240463E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>3.5E-4</v>
       </c>
@@ -1759,7 +2593,7 @@
         <v>2.1122101000000001E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -1767,7 +2601,7 @@
         <v>2.5122596000000001E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -1775,7 +2609,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1E-3</v>
       </c>
@@ -1783,7 +2617,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>6.0700000000000001E-4</v>
       </c>
@@ -1791,7 +2625,7 @@
         <v>2.7795714999999999E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1E-3</v>
       </c>
@@ -1799,7 +2633,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>6.9200000000000002E-4</v>
       </c>
@@ -1807,7 +2641,7 @@
         <v>2.9689455E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1E-3</v>
       </c>
@@ -1815,7 +2649,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>3.59E-4</v>
       </c>
@@ -1823,7 +2657,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -1831,7 +2665,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>9.5699999999999995E-4</v>
       </c>
@@ -1839,7 +2673,7 @@
         <v>3.4912350000000002E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -1847,7 +2681,7 @@
         <v>2.2615488999999999E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>9.0600000000000001E-4</v>
       </c>
@@ -1855,7 +2689,7 @@
         <v>3.3964025000000002E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1E-3</v>
       </c>
@@ -1863,7 +2697,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -1871,7 +2705,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>9.0600000000000001E-4</v>
       </c>
@@ -1879,7 +2713,7 @@
         <v>3.3964025000000002E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>7.9500000000000003E-4</v>
       </c>
@@ -1887,7 +2721,7 @@
         <v>3.1813489E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -1895,7 +2729,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1E-3</v>
       </c>
@@ -1903,7 +2737,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -1911,7 +2745,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>3.68E-4</v>
       </c>
@@ -1919,7 +2753,7 @@
         <v>2.1631355000000001E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>9.5699999999999995E-4</v>
       </c>
@@ -1927,7 +2761,7 @@
         <v>3.4912350000000002E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>6.5799999999999995E-4</v>
       </c>
@@ -1935,7 +2769,7 @@
         <v>2.894683E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>5.13E-4</v>
       </c>
@@ -1943,7 +2777,7 @@
         <v>2.5552245000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -1951,7 +2785,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1E-3</v>
       </c>
@@ -1959,7 +2793,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>8.12E-4</v>
       </c>
@@ -1967,7 +2801,7 @@
         <v>3.2153857000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>5.4699999999999996E-4</v>
       </c>
@@ -1975,7 +2809,7 @@
         <v>2.6390567E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -1983,7 +2817,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -1991,7 +2825,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>7.18E-4</v>
       </c>
@@ -1999,7 +2833,7 @@
         <v>3.0233402999999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>7.18E-4</v>
       </c>
@@ -2007,7 +2841,7 @@
         <v>3.0233402999999999E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -2015,7 +2849,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -2023,7 +2857,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -2031,7 +2865,7 @@
         <v>2.5122596000000001E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>9.8299999999999993E-4</v>
       </c>
@@ -2039,7 +2873,7 @@
         <v>3.5376082000000003E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>8.8900000000000003E-4</v>
       </c>
@@ -2047,7 +2881,7 @@
         <v>3.3641977000000003E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>3.5E-4</v>
       </c>
@@ -2055,7 +2889,7 @@
         <v>2.1122101000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -2063,7 +2897,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>6.1499999999999999E-4</v>
       </c>
@@ -2071,7 +2905,7 @@
         <v>2.7991992E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>1E-3</v>
       </c>
@@ -2079,7 +2913,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>4.8700000000000002E-4</v>
       </c>
@@ -2087,7 +2921,7 @@
         <v>2.4906270000000001E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>1E-3</v>
       </c>
@@ -2095,7 +2929,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>5.9800000000000001E-4</v>
       </c>
@@ -2103,7 +2937,7 @@
         <v>2.7600348E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -2111,7 +2945,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1E-3</v>
       </c>
@@ -2119,7 +2953,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>1E-3</v>
       </c>
@@ -2127,7 +2961,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>5.6400000000000005E-4</v>
       </c>
@@ -2135,7 +2969,7 @@
         <v>2.6799896E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1E-3</v>
       </c>
@@ -2143,7 +2977,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>5.8100000000000003E-4</v>
       </c>
@@ -2151,7 +2985,7 @@
         <v>2.7203066000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
@@ -2159,7 +2993,7 @@
         <v>2.4465279999999999E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>4.5300000000000001E-4</v>
       </c>
@@ -2167,7 +3001,7 @@
         <v>2.4016193000000002E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -2175,7 +3009,7 @@
         <v>2.4240463E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>5.04E-4</v>
       </c>
@@ -2183,7 +3017,7 @@
         <v>2.5339588E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>8.03E-4</v>
       </c>
@@ -2191,7 +3025,7 @@
         <v>3.1983130999999998E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
@@ -2199,7 +3033,7 @@
         <v>2.4465279999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>5.4699999999999996E-4</v>
       </c>
@@ -2207,7 +3041,7 @@
         <v>2.6390567E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -2215,7 +3049,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>5.13E-4</v>
       </c>
@@ -2223,7 +3057,7 @@
         <v>2.5552245000000001E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1E-3</v>
       </c>
@@ -2231,7 +3065,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>3.59E-4</v>
       </c>
@@ -2239,7 +3073,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>3.59E-4</v>
       </c>
@@ -2247,7 +3081,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>6.7500000000000004E-4</v>
       </c>
@@ -2255,7 +3089,7 @@
         <v>2.9320493999999999E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>9.0600000000000001E-4</v>
       </c>
@@ -2263,7 +3097,7 @@
         <v>3.3964025000000002E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -2271,7 +3105,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -2279,7 +3113,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -2287,7 +3121,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>1E-3</v>
       </c>
@@ -2295,7 +3129,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>4.5300000000000001E-4</v>
       </c>
@@ -2303,7 +3137,7 @@
         <v>2.4016193000000002E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>5.13E-4</v>
       </c>
@@ -2311,7 +3145,7 @@
         <v>2.5552245000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -2319,7 +3153,7 @@
         <v>2.8184643999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>1E-3</v>
       </c>
@@ -2327,7 +3161,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>1E-3</v>
       </c>
@@ -2335,7 +3169,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>3.68E-4</v>
       </c>
@@ -2343,7 +3177,7 @@
         <v>2.1631355000000001E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -2351,7 +3185,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1E-3</v>
       </c>
@@ -2359,7 +3193,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>1E-3</v>
       </c>
@@ -2367,7 +3201,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>3.59E-4</v>
       </c>
@@ -2375,7 +3209,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>5.3899999999999998E-4</v>
       </c>
@@ -2383,7 +3217,7 @@
         <v>2.6184718999999999E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>3.5E-4</v>
       </c>
@@ -2391,7 +3225,7 @@
         <v>2.1122101000000001E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>5.6400000000000005E-4</v>
       </c>
@@ -2399,7 +3233,7 @@
         <v>2.6799896E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -2407,7 +3241,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>1E-3</v>
       </c>
@@ -2415,7 +3249,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>6.4099999999999997E-4</v>
       </c>
@@ -2423,7 +3257,7 @@
         <v>2.8568278999999999E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -2431,7 +3265,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>5.3899999999999998E-4</v>
       </c>
@@ -2439,7 +3273,7 @@
         <v>2.6184718999999999E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -2447,7 +3281,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>1E-3</v>
       </c>
@@ -2455,7 +3289,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -2463,7 +3297,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -2471,7 +3305,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1E-3</v>
       </c>
@@ -2479,7 +3313,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1E-3</v>
       </c>
@@ -2487,7 +3321,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -2495,7 +3329,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>7.27E-4</v>
       </c>
@@ -2503,7 +3337,7 @@
         <v>3.0413953000000001E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -2511,7 +3345,7 @@
         <v>2.2615488999999999E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>5.04E-4</v>
       </c>
@@ -2519,7 +3353,7 @@
         <v>2.5339588E-2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>7.6900000000000004E-4</v>
       </c>
@@ -2527,7 +3361,7 @@
         <v>3.1294980999999999E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -2535,7 +3369,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>4.8700000000000002E-4</v>
       </c>
@@ -2543,7 +3377,7 @@
         <v>2.4906270000000001E-2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>3.59E-4</v>
       </c>
@@ -2551,7 +3385,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>7.7800000000000005E-4</v>
       </c>
@@ -2559,7 +3393,7 @@
         <v>3.1469441000000001E-2</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1E-3</v>
       </c>
@@ -2567,7 +3401,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1E-3</v>
       </c>
@@ -2575,7 +3409,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>9.5699999999999995E-4</v>
       </c>
@@ -2583,7 +3417,7 @@
         <v>3.4912350000000002E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>7.4399999999999998E-4</v>
       </c>
@@ -2591,7 +3425,7 @@
         <v>3.0769805000000001E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>5.4699999999999996E-4</v>
       </c>
@@ -2599,7 +3433,7 @@
         <v>2.6390567E-2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>7.6099999999999996E-4</v>
       </c>
@@ -2607,7 +3441,7 @@
         <v>3.1121589000000002E-2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>5.7300000000000005E-4</v>
       </c>
@@ -2615,7 +3449,7 @@
         <v>2.7001055E-2</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>6.7500000000000004E-4</v>
       </c>
@@ -2623,7 +3457,7 @@
         <v>2.9320493999999999E-2</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>3.59E-4</v>
       </c>
@@ -2631,7 +3465,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>7.9500000000000003E-4</v>
       </c>
@@ -2639,7 +3473,7 @@
         <v>3.1813489E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -2647,7 +3481,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>8.8900000000000003E-4</v>
       </c>
@@ -2655,7 +3489,7 @@
         <v>3.3641977000000003E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>7.27E-4</v>
       </c>
@@ -2663,7 +3497,7 @@
         <v>3.0413953000000001E-2</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -2671,7 +3505,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1E-3</v>
       </c>
@@ -2679,7 +3513,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1E-3</v>
       </c>
@@ -2687,7 +3521,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -2695,7 +3529,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -2703,7 +3537,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -2711,7 +3545,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>1E-3</v>
       </c>
@@ -2719,7 +3553,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>1E-3</v>
       </c>
@@ -2727,7 +3561,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -2735,7 +3569,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>9.6599999999999995E-4</v>
       </c>
@@ -2743,7 +3577,7 @@
         <v>3.5067003999999999E-2</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>7.6099999999999996E-4</v>
       </c>
@@ -2751,7 +3585,7 @@
         <v>3.1121589000000002E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>4.44E-4</v>
       </c>
@@ -2759,7 +3593,7 @@
         <v>2.3787131999999999E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -2767,7 +3601,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>3.68E-4</v>
       </c>
@@ -2775,7 +3609,7 @@
         <v>2.1631355000000001E-2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>5.9800000000000001E-4</v>
       </c>
@@ -2783,7 +3617,7 @@
         <v>2.7600348E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>8.8000000000000003E-4</v>
       </c>
@@ -2791,7 +3625,7 @@
         <v>3.3478841000000002E-2</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -2799,7 +3633,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -2807,7 +3641,7 @@
         <v>2.8184643999999998E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -2815,7 +3649,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>9.3899999999999995E-4</v>
       </c>
@@ -2823,7 +3657,7 @@
         <v>3.4575201999999999E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>6.38E-4</v>
       </c>
@@ -2831,7 +3665,7 @@
         <v>2.8496879999999999E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>7.9699999999999997E-4</v>
       </c>
@@ -2839,7 +3673,7 @@
         <v>3.1859482000000001E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>6.4700000000000001E-4</v>
       </c>
@@ -2847,7 +3681,7 @@
         <v>2.8692799000000001E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>5.9400000000000002E-4</v>
       </c>
@@ -2855,7 +3689,7 @@
         <v>2.7489409999999999E-2</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>7.0899999999999999E-4</v>
       </c>
@@ -2863,7 +3697,7 @@
         <v>3.0036936E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>1E-3</v>
       </c>
@@ -2871,7 +3705,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>6.2E-4</v>
       </c>
@@ -2879,7 +3713,7 @@
         <v>2.8096415E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -2887,7 +3721,7 @@
         <v>2.1504432E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>6.2E-4</v>
       </c>
@@ -2895,7 +3729,7 @@
         <v>2.8096415E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -2903,7 +3737,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>5.6700000000000001E-4</v>
       </c>
@@ -2911,7 +3745,7 @@
         <v>2.6866325999999999E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>5.2300000000000003E-4</v>
       </c>
@@ -2919,7 +3753,7 @@
         <v>2.5795251000000002E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>3.9899999999999999E-4</v>
       </c>
@@ -2927,7 +3761,7 @@
         <v>2.2528055000000002E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>9.1200000000000005E-4</v>
       </c>
@@ -2935,7 +3769,7 @@
         <v>3.4081908000000001E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>4.2499999999999998E-4</v>
       </c>
@@ -2943,7 +3777,7 @@
         <v>2.3267605E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>5.7600000000000001E-4</v>
       </c>
@@ -2951,7 +3785,7 @@
         <v>2.7076398000000002E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>9.7400000000000004E-4</v>
       </c>
@@ -2959,7 +3793,7 @@
         <v>3.5220978E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>9.0399999999999996E-4</v>
       </c>
@@ -2967,7 +3801,7 @@
         <v>3.3917133000000002E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>8.3299999999999997E-4</v>
       </c>
@@ -2975,7 +3809,7 @@
         <v>3.2559165000000001E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1E-3</v>
       </c>
@@ -2983,7 +3817,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>5.4000000000000001E-4</v>
       </c>
@@ -2991,7 +3825,7 @@
         <v>2.6228445E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>6.29E-4</v>
       </c>
@@ -2999,7 +3833,7 @@
         <v>2.8297355999999999E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -3007,7 +3841,7 @@
         <v>3.2903427999999998E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -3015,7 +3849,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>7.6199999999999998E-4</v>
       </c>
@@ -3023,7 +3857,7 @@
         <v>3.1144082999999999E-2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -3031,7 +3865,7 @@
         <v>2.2022191999999999E-2</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1E-3</v>
       </c>
@@ -3039,7 +3873,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>5.0500000000000002E-4</v>
       </c>
@@ -3047,7 +3881,7 @@
         <v>2.5354656999999999E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -3055,7 +3889,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1E-3</v>
       </c>
@@ -3063,7 +3897,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>9.6599999999999995E-4</v>
       </c>
@@ -3071,7 +3905,7 @@
         <v>3.5061557E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -3079,7 +3913,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -3087,7 +3921,7 @@
         <v>2.1504432E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
@@ -3095,7 +3929,7 @@
         <v>3.4412789999999999E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -3103,7 +3937,7 @@
         <v>2.1504432E-2</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>4.5199999999999998E-4</v>
       </c>
@@ -3111,7 +3945,7 @@
         <v>2.3981708000000001E-2</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>9.7400000000000004E-4</v>
       </c>
@@ -3119,7 +3953,7 @@
         <v>3.5220978E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>3.5399999999999999E-4</v>
       </c>
@@ -3127,7 +3961,7 @@
         <v>2.1239320999999999E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -3135,7 +3969,7 @@
         <v>2.5130197E-2</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>1E-3</v>
       </c>
@@ -3143,7 +3977,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -3151,7 +3985,7 @@
         <v>2.832434E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>7.2599999999999997E-4</v>
       </c>
@@ -3159,7 +3993,7 @@
         <v>3.0407673E-2</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>4.3800000000000002E-4</v>
       </c>
@@ -3167,7 +4001,7 @@
         <v>2.3612530999999999E-2</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>9.9299999999999996E-4</v>
       </c>
@@ -3175,7 +4009,7 @@
         <v>3.5560954999999998E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>5.3399999999999997E-4</v>
       </c>
@@ -3183,7 +4017,7 @@
         <v>2.6075081999999999E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>5.9800000000000001E-4</v>
       </c>
@@ -3191,7 +4025,7 @@
         <v>2.7595735E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>1E-3</v>
       </c>
@@ -3199,7 +4033,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>1E-3</v>
       </c>
@@ -3207,7 +4041,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>9.9299999999999996E-4</v>
       </c>
@@ -3215,7 +4049,7 @@
         <v>3.5560954999999998E-2</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -3223,7 +4057,7 @@
         <v>2.9500156E-2</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -3231,7 +4065,7 @@
         <v>2.1501472000000001E-2</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>4.9100000000000001E-4</v>
       </c>
@@ -3239,7 +4073,7 @@
         <v>2.5010849000000002E-2</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>1E-3</v>
       </c>
@@ -3247,7 +4081,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
@@ -3255,7 +4089,7 @@
         <v>2.4460075000000001E-2</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>7.9000000000000001E-4</v>
       </c>
@@ -3263,7 +4097,7 @@
         <v>3.1721304999999998E-2</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>4.3800000000000002E-4</v>
       </c>
@@ -3271,7 +4105,7 @@
         <v>2.3612530999999999E-2</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>6.0899999999999995E-4</v>
       </c>
@@ -3279,7 +4113,7 @@
         <v>2.7839197E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>3.7399999999999998E-4</v>
       </c>
@@ -3287,7 +4121,7 @@
         <v>2.1815978999999999E-2</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -3295,7 +4129,7 @@
         <v>2.832434E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>7.2599999999999997E-4</v>
       </c>
@@ -3303,7 +4137,7 @@
         <v>3.0407673E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>7.6900000000000004E-4</v>
       </c>
@@ -3311,7 +4145,7 @@
         <v>3.1288877999999999E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1E-3</v>
       </c>
@@ -3319,7 +4153,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>1E-3</v>
       </c>
@@ -3327,7 +4161,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>4.9100000000000001E-4</v>
       </c>
@@ -3335,7 +4169,7 @@
         <v>2.5010849000000002E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>4.06E-4</v>
       </c>
@@ -3343,7 +4177,7 @@
         <v>2.2730608999999999E-2</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>3.5199999999999999E-4</v>
       </c>
@@ -3351,7 +4185,7 @@
         <v>2.1182295E-2</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>3.9500000000000001E-4</v>
       </c>
@@ -3359,7 +4193,7 @@
         <v>2.2428930999999999E-2</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>1E-3</v>
       </c>
@@ -3369,6 +4203,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3380,12 +4215,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3393,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -3411,7 +4246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>5.5400000000000002E-4</v>
       </c>
@@ -3429,7 +4264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7.1599999999999995E-4</v>
       </c>
@@ -3447,7 +4282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -3465,7 +4300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.2800000000000002E-4</v>
       </c>
@@ -3482,7 +4317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1E-3</v>
       </c>
@@ -3490,7 +4325,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -3498,7 +4333,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -3506,7 +4341,7 @@
         <v>2.2030863000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -3514,7 +4349,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1E-3</v>
       </c>
@@ -3522,7 +4357,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4.5100000000000001E-4</v>
       </c>
@@ -3530,7 +4365,7 @@
         <v>2.3949831000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -3538,7 +4373,7 @@
         <v>2.5726055000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7.3899999999999997E-4</v>
       </c>
@@ -3546,7 +4381,7 @@
         <v>3.0678634999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -3554,7 +4389,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>6.5799999999999995E-4</v>
       </c>
@@ -3562,7 +4397,7 @@
         <v>2.8953427E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -3570,7 +4405,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -3578,7 +4413,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -3586,7 +4421,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -3594,7 +4429,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1E-3</v>
       </c>
@@ -3602,7 +4437,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -3610,7 +4445,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>5.31E-4</v>
       </c>
@@ -3618,7 +4453,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -3626,7 +4461,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1E-3</v>
       </c>
@@ -3634,7 +4469,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -3642,7 +4477,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>8.7799999999999998E-4</v>
       </c>
@@ -3650,7 +4485,7 @@
         <v>3.3431268E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>8.6600000000000002E-4</v>
       </c>
@@ -3658,7 +4493,7 @@
         <v>3.3211554999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -3666,7 +4501,7 @@
         <v>2.1352916999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1E-3</v>
       </c>
@@ -3674,7 +4509,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -3682,7 +4517,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1E-3</v>
       </c>
@@ -3690,7 +4525,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -3698,7 +4533,7 @@
         <v>2.4253591000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>5.31E-4</v>
       </c>
@@ -3706,7 +4541,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>5.31E-4</v>
       </c>
@@ -3714,7 +4549,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>8.7799999999999998E-4</v>
       </c>
@@ -3722,7 +4557,7 @@
         <v>3.3431268E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -3730,7 +4565,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -3738,7 +4573,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1E-3</v>
       </c>
@@ -3746,7 +4581,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>7.1599999999999995E-4</v>
       </c>
@@ -3754,7 +4589,7 @@
         <v>3.0195476999999998E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1E-3</v>
       </c>
@@ -3762,7 +4597,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1E-3</v>
       </c>
@@ -3770,7 +4605,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1E-3</v>
       </c>
@@ -3778,7 +4613,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -3786,7 +4621,7 @@
         <v>3.0918412999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -3794,7 +4629,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1E-3</v>
       </c>
@@ -3802,7 +4637,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>1E-3</v>
       </c>
@@ -3810,7 +4645,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -3818,7 +4653,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
@@ -3826,7 +4661,7 @@
         <v>2.8440975E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1E-3</v>
       </c>
@@ -3834,7 +4669,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
@@ -3842,7 +4677,7 @@
         <v>2.8440975E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -3850,7 +4685,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -3858,7 +4693,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -3866,7 +4701,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>4.5100000000000001E-4</v>
       </c>
@@ -3874,7 +4709,7 @@
         <v>2.3949831000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>8.7799999999999998E-4</v>
       </c>
@@ -3882,7 +4717,7 @@
         <v>3.3431268E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>7.3899999999999997E-4</v>
       </c>
@@ -3890,7 +4725,7 @@
         <v>3.0678634999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>9.8200000000000002E-4</v>
       </c>
@@ -3898,7 +4733,7 @@
         <v>3.5356281000000003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -3906,7 +4741,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -3914,7 +4749,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -3922,7 +4757,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>6.8199999999999999E-4</v>
       </c>
@@ -3930,7 +4765,7 @@
         <v>2.9456963999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -3938,7 +4773,7 @@
         <v>2.2030863000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>8.0900000000000004E-4</v>
       </c>
@@ -3946,7 +4781,7 @@
         <v>3.2084485000000003E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -3967,12 +4802,12 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3980,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1E-3</v>
       </c>
@@ -3998,7 +4833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -4016,7 +4851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -4034,7 +4869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -4052,7 +4887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1E-3</v>
       </c>
@@ -4069,7 +4904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -4077,7 +4912,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -4085,7 +4920,7 @@
         <v>2.5726055000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -4093,7 +4928,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -4101,7 +4936,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -4109,7 +4944,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>7.3899999999999997E-4</v>
       </c>
@@ -4117,7 +4952,7 @@
         <v>3.0678634999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -4125,7 +4960,7 @@
         <v>2.7653348000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1E-3</v>
       </c>
@@ -4133,7 +4968,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1E-3</v>
       </c>
@@ -4141,7 +4976,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -4149,7 +4984,7 @@
         <v>3.0918412999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -4157,7 +4992,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -4165,7 +5000,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1E-3</v>
       </c>
@@ -4173,7 +5008,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1E-3</v>
       </c>
@@ -4181,7 +5016,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6.8199999999999999E-4</v>
       </c>
@@ -4189,7 +5024,7 @@
         <v>2.9456963999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4197,7 +5032,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -4205,7 +5040,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>6.9300000000000004E-4</v>
       </c>
@@ -4213,7 +5048,7 @@
         <v>2.9704461000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1E-3</v>
       </c>
@@ -4221,7 +5056,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -4229,7 +5064,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>9.1299999999999997E-4</v>
       </c>
@@ -4237,7 +5072,7 @@
         <v>3.4085642999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4245,7 +5080,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -4253,7 +5088,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -4261,7 +5096,7 @@
         <v>3.2539606999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -4269,7 +5104,7 @@
         <v>2.8180126E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4277,7 +5112,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -4285,7 +5120,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>8.0900000000000004E-4</v>
       </c>
@@ -4293,7 +5128,7 @@
         <v>3.2084485000000003E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -4301,7 +5136,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>7.5100000000000004E-4</v>
       </c>
@@ -4309,7 +5144,7 @@
         <v>3.0918412999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>6.1200000000000002E-4</v>
       </c>
@@ -4317,7 +5152,7 @@
         <v>2.7919119999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4.0400000000000001E-4</v>
       </c>
@@ -4325,7 +5160,7 @@
         <v>2.268856E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>7.2800000000000002E-4</v>
       </c>
@@ -4333,7 +5168,7 @@
         <v>3.0439061E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -4341,7 +5176,7 @@
         <v>2.6291477000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -4349,7 +5184,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>4.8500000000000003E-4</v>
       </c>
@@ -4357,7 +5192,7 @@
         <v>2.4852534999999999E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1E-3</v>
       </c>
@@ -4365,7 +5200,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>1E-3</v>
       </c>
@@ -4373,7 +5208,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -4381,7 +5216,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>8.1999999999999998E-4</v>
       </c>
@@ -4389,7 +5224,7 @@
         <v>3.2313832000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4397,7 +5232,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -4405,7 +5240,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>4.7399999999999997E-4</v>
       </c>
@@ -4413,7 +5248,7 @@
         <v>2.4556186000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>4.8500000000000003E-4</v>
       </c>
@@ -4421,7 +5256,7 @@
         <v>2.4852534999999999E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>6.3500000000000004E-4</v>
       </c>
@@ -4429,7 +5264,7 @@
         <v>2.8440975E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -4437,7 +5272,7 @@
         <v>2.1352916999999999E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -4445,7 +5280,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>9.01E-4</v>
       </c>
@@ -4453,7 +5288,7 @@
         <v>3.3868295999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>7.6199999999999998E-4</v>
       </c>
@@ -4461,7 +5296,7 @@
         <v>3.1154301999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>5.8900000000000001E-4</v>
       </c>
@@ -4469,7 +5304,7 @@
         <v>2.7387321999999999E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -4477,7 +5312,7 @@
         <v>3.2539606999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -4485,7 +5320,7 @@
         <v>2.4253591000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -4493,7 +5328,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -4501,7 +5336,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>3.6999999999999999E-4</v>
       </c>
@@ -4509,7 +5344,7 @@
         <v>2.1693071000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>5.1999999999999995E-4</v>
       </c>
@@ -4517,7 +5352,7 @@
         <v>2.5726055000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -4525,7 +5360,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -4533,7 +5368,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>6.0099999999999997E-4</v>
       </c>
@@ -4541,7 +5376,7 @@
         <v>2.7653348000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>5.8900000000000001E-4</v>
       </c>
@@ -4549,7 +5384,7 @@
         <v>2.7387321999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>4.9700000000000005E-4</v>
       </c>
@@ -4557,7 +5392,7 @@
         <v>2.5147923999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -4565,7 +5400,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -4573,7 +5408,7 @@
         <v>2.8180126E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>3.5799999999999997E-4</v>
       </c>
@@ -4581,7 +5416,7 @@
         <v>2.1352916999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>4.0400000000000001E-4</v>
       </c>
@@ -4589,7 +5424,7 @@
         <v>2.268856E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>5.31E-4</v>
       </c>
@@ -4597,7 +5432,7 @@
         <v>2.6009079000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -4605,7 +5440,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>3.4699999999999998E-4</v>
       </c>
@@ -4613,7 +5448,7 @@
         <v>2.1004226000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4621,7 +5456,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>7.7399999999999995E-4</v>
       </c>
@@ -4629,7 +5464,7 @@
         <v>3.1390446000000002E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>9.4700000000000003E-4</v>
       </c>
@@ -4637,7 +5472,7 @@
         <v>3.4725856999999999E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>1E-3</v>
       </c>
@@ -4645,7 +5480,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -4653,7 +5488,7 @@
         <v>2.8180126E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>5.0799999999999999E-4</v>
       </c>
@@ -4661,7 +5496,7 @@
         <v>2.5437380999999998E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -4669,7 +5504,7 @@
         <v>2.3008977E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>9.7000000000000005E-4</v>
       </c>
@@ -4677,7 +5512,7 @@
         <v>3.5146792000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1E-3</v>
       </c>
@@ -4685,7 +5520,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4693,7 +5528,7 @@
         <v>2.2360706000000001E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>1E-3</v>
       </c>
@@ -4701,7 +5536,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>4.3899999999999999E-4</v>
       </c>
@@ -4709,7 +5544,7 @@
         <v>2.3639476E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1E-3</v>
       </c>
@@ -4717,7 +5552,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -4725,7 +5560,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -4733,7 +5568,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -4741,7 +5576,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4749,7 +5584,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -4757,7 +5592,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>1E-3</v>
       </c>
@@ -4765,7 +5600,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1E-3</v>
       </c>
@@ -4773,7 +5608,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -4781,7 +5616,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>7.5199999999999996E-4</v>
       </c>
@@ -4789,7 +5624,7 @@
         <v>3.0945169000000002E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -4797,7 +5632,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -4805,7 +5640,7 @@
         <v>2.4240463E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>7.18E-4</v>
       </c>
@@ -4813,7 +5648,7 @@
         <v>3.0233402999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -4821,7 +5656,7 @@
         <v>2.4240463E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>3.5E-4</v>
       </c>
@@ -4829,7 +5664,7 @@
         <v>2.1122101000000001E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -4837,7 +5672,7 @@
         <v>2.5122596000000001E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -4845,7 +5680,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>1E-3</v>
       </c>
@@ -4853,7 +5688,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>6.0700000000000001E-4</v>
       </c>
@@ -4861,7 +5696,7 @@
         <v>2.7795714999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1E-3</v>
       </c>
@@ -4869,7 +5704,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>6.9200000000000002E-4</v>
       </c>
@@ -4877,7 +5712,7 @@
         <v>2.9689455E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1E-3</v>
       </c>
@@ -4885,7 +5720,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>3.59E-4</v>
       </c>
@@ -4893,7 +5728,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -4901,7 +5736,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>9.5699999999999995E-4</v>
       </c>
@@ -4909,7 +5744,7 @@
         <v>3.4912350000000002E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -4917,7 +5752,7 @@
         <v>2.2615488999999999E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>9.0600000000000001E-4</v>
       </c>
@@ -4925,7 +5760,7 @@
         <v>3.3964025000000002E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>1E-3</v>
       </c>
@@ -4933,7 +5768,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -4941,7 +5776,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>9.0600000000000001E-4</v>
       </c>
@@ -4949,7 +5784,7 @@
         <v>3.3964025000000002E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>7.9500000000000003E-4</v>
       </c>
@@ -4957,7 +5792,7 @@
         <v>3.1813489E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -4965,7 +5800,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>1E-3</v>
       </c>
@@ -4973,7 +5808,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -4981,7 +5816,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>3.68E-4</v>
       </c>
@@ -4989,7 +5824,7 @@
         <v>2.1631355000000001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>9.5699999999999995E-4</v>
       </c>
@@ -4997,7 +5832,7 @@
         <v>3.4912350000000002E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>6.5799999999999995E-4</v>
       </c>
@@ -5005,7 +5840,7 @@
         <v>2.894683E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>5.13E-4</v>
       </c>
@@ -5013,7 +5848,7 @@
         <v>2.5552245000000001E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -5021,7 +5856,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1E-3</v>
       </c>
@@ -5029,7 +5864,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>8.12E-4</v>
       </c>
@@ -5037,7 +5872,7 @@
         <v>3.2153857000000001E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>5.4699999999999996E-4</v>
       </c>
@@ -5045,7 +5880,7 @@
         <v>2.6390567E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -5053,7 +5888,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -5061,7 +5896,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>7.18E-4</v>
       </c>
@@ -5069,7 +5904,7 @@
         <v>3.0233402999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>7.18E-4</v>
       </c>
@@ -5077,7 +5912,7 @@
         <v>3.0233402999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -5085,7 +5920,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -5093,7 +5928,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -5101,7 +5936,7 @@
         <v>2.5122596000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>9.8299999999999993E-4</v>
       </c>
@@ -5109,7 +5944,7 @@
         <v>3.5376082000000003E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>8.8900000000000003E-4</v>
       </c>
@@ -5117,7 +5952,7 @@
         <v>3.3641977000000003E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>3.5E-4</v>
       </c>
@@ -5125,7 +5960,7 @@
         <v>2.1122101000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -5133,7 +5968,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>6.1499999999999999E-4</v>
       </c>
@@ -5141,7 +5976,7 @@
         <v>2.7991992E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>1E-3</v>
       </c>
@@ -5149,7 +5984,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>4.8700000000000002E-4</v>
       </c>
@@ -5157,7 +5992,7 @@
         <v>2.4906270000000001E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>1E-3</v>
       </c>
@@ -5165,7 +6000,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>5.9800000000000001E-4</v>
       </c>
@@ -5173,7 +6008,7 @@
         <v>2.7600348E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -5181,7 +6016,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>1E-3</v>
       </c>
@@ -5189,7 +6024,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>1E-3</v>
       </c>
@@ -5197,7 +6032,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>5.6400000000000005E-4</v>
       </c>
@@ -5205,7 +6040,7 @@
         <v>2.6799896E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>1E-3</v>
       </c>
@@ -5213,7 +6048,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>5.8100000000000003E-4</v>
       </c>
@@ -5221,7 +6056,7 @@
         <v>2.7203066000000001E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
@@ -5229,7 +6064,7 @@
         <v>2.4465279999999999E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>4.5300000000000001E-4</v>
       </c>
@@ -5237,7 +6072,7 @@
         <v>2.4016193000000002E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>4.6200000000000001E-4</v>
       </c>
@@ -5245,7 +6080,7 @@
         <v>2.4240463E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>5.04E-4</v>
       </c>
@@ -5253,7 +6088,7 @@
         <v>2.5339588E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>8.03E-4</v>
       </c>
@@ -5261,7 +6096,7 @@
         <v>3.1983130999999998E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
@@ -5269,7 +6104,7 @@
         <v>2.4465279999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>5.4699999999999996E-4</v>
       </c>
@@ -5277,7 +6112,7 @@
         <v>2.6390567E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -5285,7 +6120,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>5.13E-4</v>
       </c>
@@ -5293,7 +6128,7 @@
         <v>2.5552245000000001E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>1E-3</v>
       </c>
@@ -5301,7 +6136,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>3.59E-4</v>
       </c>
@@ -5309,7 +6144,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>3.59E-4</v>
       </c>
@@ -5317,7 +6152,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>6.7500000000000004E-4</v>
       </c>
@@ -5325,7 +6160,7 @@
         <v>2.9320493999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>9.0600000000000001E-4</v>
       </c>
@@ -5333,7 +6168,7 @@
         <v>3.3964025000000002E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -5341,7 +6176,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>4.2700000000000002E-4</v>
       </c>
@@ -5349,7 +6184,7 @@
         <v>2.3327720999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -5357,7 +6192,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>1E-3</v>
       </c>
@@ -5365,7 +6200,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>4.5300000000000001E-4</v>
       </c>
@@ -5373,7 +6208,7 @@
         <v>2.4016193000000002E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>5.13E-4</v>
       </c>
@@ -5381,7 +6216,7 @@
         <v>2.5552245000000001E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -5389,7 +6224,7 @@
         <v>2.8184643999999998E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1E-3</v>
       </c>
@@ -5397,7 +6232,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1E-3</v>
       </c>
@@ -5405,7 +6240,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>3.68E-4</v>
       </c>
@@ -5413,7 +6248,7 @@
         <v>2.1631355000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -5421,7 +6256,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1E-3</v>
       </c>
@@ -5429,7 +6264,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1E-3</v>
       </c>
@@ -5437,7 +6272,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>3.59E-4</v>
       </c>
@@ -5445,7 +6280,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>5.3899999999999998E-4</v>
       </c>
@@ -5453,7 +6288,7 @@
         <v>2.6184718999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>3.5E-4</v>
       </c>
@@ -5461,7 +6296,7 @@
         <v>2.1122101000000001E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>5.6400000000000005E-4</v>
       </c>
@@ -5469,7 +6304,7 @@
         <v>2.6799896E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -5477,7 +6312,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1E-3</v>
       </c>
@@ -5485,7 +6320,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>6.4099999999999997E-4</v>
       </c>
@@ -5493,7 +6328,7 @@
         <v>2.8568278999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -5501,7 +6336,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>5.3899999999999998E-4</v>
       </c>
@@ -5509,7 +6344,7 @@
         <v>2.6184718999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -5517,7 +6352,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1E-3</v>
       </c>
@@ -5525,7 +6360,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -5533,7 +6368,7 @@
         <v>2.2374937000000001E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>5.2999999999999998E-4</v>
       </c>
@@ -5541,7 +6376,7 @@
         <v>2.5974787999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>1E-3</v>
       </c>
@@ -5549,7 +6384,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1E-3</v>
       </c>
@@ -5557,7 +6392,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -5565,7 +6400,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>7.27E-4</v>
       </c>
@@ -5573,7 +6408,7 @@
         <v>3.0413953000000001E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -5581,7 +6416,7 @@
         <v>2.2615488999999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>5.04E-4</v>
       </c>
@@ -5589,7 +6424,7 @@
         <v>2.5339588E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>7.6900000000000004E-4</v>
       </c>
@@ -5597,7 +6432,7 @@
         <v>3.1294980999999999E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -5605,7 +6440,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>4.8700000000000002E-4</v>
       </c>
@@ -5613,7 +6448,7 @@
         <v>2.4906270000000001E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>3.59E-4</v>
       </c>
@@ -5621,7 +6456,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>7.7800000000000005E-4</v>
       </c>
@@ -5629,7 +6464,7 @@
         <v>3.1469441000000001E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1E-3</v>
       </c>
@@ -5637,7 +6472,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1E-3</v>
       </c>
@@ -5645,7 +6480,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>9.5699999999999995E-4</v>
       </c>
@@ -5653,7 +6488,7 @@
         <v>3.4912350000000002E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>7.4399999999999998E-4</v>
       </c>
@@ -5661,7 +6496,7 @@
         <v>3.0769805000000001E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>5.4699999999999996E-4</v>
       </c>
@@ -5669,7 +6504,7 @@
         <v>2.6390567E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>7.6099999999999996E-4</v>
       </c>
@@ -5677,7 +6512,7 @@
         <v>3.1121589000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>5.7300000000000005E-4</v>
       </c>
@@ -5685,7 +6520,7 @@
         <v>2.7001055E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>6.7500000000000004E-4</v>
       </c>
@@ -5693,7 +6528,7 @@
         <v>2.9320493999999999E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>3.59E-4</v>
       </c>
@@ -5701,7 +6536,7 @@
         <v>2.1379733000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>7.9500000000000003E-4</v>
       </c>
@@ -5709,7 +6544,7 @@
         <v>3.1813489E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>4.7899999999999999E-4</v>
       </c>
@@ -5717,7 +6552,7 @@
         <v>2.4685470000000001E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>8.8900000000000003E-4</v>
       </c>
@@ -5725,7 +6560,7 @@
         <v>3.3641977000000003E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>7.27E-4</v>
       </c>
@@ -5733,7 +6568,7 @@
         <v>3.0413953000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -5741,7 +6576,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>1E-3</v>
       </c>
@@ -5749,7 +6584,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>1E-3</v>
       </c>
@@ -5757,7 +6592,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -5765,7 +6600,7 @@
         <v>2.2856293999999999E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -5773,7 +6608,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>3.7599999999999998E-4</v>
       </c>
@@ -5781,7 +6616,7 @@
         <v>2.1882993E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>1E-3</v>
       </c>
@@ -5789,7 +6624,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>1E-3</v>
       </c>
@@ -5797,7 +6632,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>4.1899999999999999E-4</v>
       </c>
@@ -5805,7 +6640,7 @@
         <v>2.3091832E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>9.6599999999999995E-4</v>
       </c>
@@ -5813,7 +6648,7 @@
         <v>3.5067003999999999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>7.6099999999999996E-4</v>
       </c>
@@ -5821,7 +6656,7 @@
         <v>3.1121589000000002E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>4.44E-4</v>
       </c>
@@ -5829,7 +6664,7 @@
         <v>2.3787131999999999E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>8.5499999999999997E-4</v>
       </c>
@@ -5837,7 +6672,7 @@
         <v>3.2988450000000002E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>3.68E-4</v>
       </c>
@@ -5845,7 +6680,7 @@
         <v>2.1631355000000001E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>5.9800000000000001E-4</v>
       </c>
@@ -5853,7 +6688,7 @@
         <v>2.7600348E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>8.8000000000000003E-4</v>
       </c>
@@ -5861,7 +6696,7 @@
         <v>3.3478841000000002E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>3.8499999999999998E-4</v>
       </c>
@@ -5869,7 +6704,7 @@
         <v>2.2128894E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>6.2399999999999999E-4</v>
       </c>
@@ -5877,7 +6712,7 @@
         <v>2.8184643999999998E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -5898,9 +6733,9 @@
       <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5908,7 +6743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>9.3899999999999995E-4</v>
       </c>
@@ -5926,7 +6761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>6.38E-4</v>
       </c>
@@ -5944,7 +6779,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>7.9699999999999997E-4</v>
       </c>
@@ -5962,7 +6797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>6.4700000000000001E-4</v>
       </c>
@@ -5980,7 +6815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5.9400000000000002E-4</v>
       </c>
@@ -5997,7 +6832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7.0899999999999999E-4</v>
       </c>
@@ -6005,7 +6840,7 @@
         <v>3.0036936E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1E-3</v>
       </c>
@@ -6013,7 +6848,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>6.2E-4</v>
       </c>
@@ -6021,7 +6856,7 @@
         <v>2.8096415E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -6029,7 +6864,7 @@
         <v>2.1504432E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>6.2E-4</v>
       </c>
@@ -6037,7 +6872,7 @@
         <v>2.8096415E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -6045,7 +6880,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>5.6700000000000001E-4</v>
       </c>
@@ -6053,7 +6888,7 @@
         <v>2.6866325999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>5.2300000000000003E-4</v>
       </c>
@@ -6061,7 +6896,7 @@
         <v>2.5795251000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3.9899999999999999E-4</v>
       </c>
@@ -6069,7 +6904,7 @@
         <v>2.2528055000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>9.1200000000000005E-4</v>
       </c>
@@ -6077,7 +6912,7 @@
         <v>3.4081908000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4.2499999999999998E-4</v>
       </c>
@@ -6085,7 +6920,7 @@
         <v>2.3267605E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>5.7600000000000001E-4</v>
       </c>
@@ -6093,7 +6928,7 @@
         <v>2.7076398000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>9.7400000000000004E-4</v>
       </c>
@@ -6101,7 +6936,7 @@
         <v>3.5220978E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>9.0399999999999996E-4</v>
       </c>
@@ -6109,7 +6944,7 @@
         <v>3.3917133000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>8.3299999999999997E-4</v>
       </c>
@@ -6117,7 +6952,7 @@
         <v>3.2559165000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1E-3</v>
       </c>
@@ -6125,7 +6960,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>5.4000000000000001E-4</v>
       </c>
@@ -6133,7 +6968,7 @@
         <v>2.6228445E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>6.29E-4</v>
       </c>
@@ -6141,7 +6976,7 @@
         <v>2.8297355999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -6149,7 +6984,7 @@
         <v>3.2903427999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -6157,7 +6992,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>7.6199999999999998E-4</v>
       </c>
@@ -6165,7 +7000,7 @@
         <v>3.1144082999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>3.8099999999999999E-4</v>
       </c>
@@ -6173,7 +7008,7 @@
         <v>2.2022191999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1E-3</v>
       </c>
@@ -6181,7 +7016,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>5.0500000000000002E-4</v>
       </c>
@@ -6189,7 +7024,7 @@
         <v>2.5354656999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -6197,7 +7032,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1E-3</v>
       </c>
@@ -6205,7 +7040,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>9.6599999999999995E-4</v>
       </c>
@@ -6213,7 +7048,7 @@
         <v>3.5061557E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4.3399999999999998E-4</v>
       </c>
@@ -6221,7 +7056,7 @@
         <v>2.3507146999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -6229,7 +7064,7 @@
         <v>2.1504432E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>9.3000000000000005E-4</v>
       </c>
@@ -6237,7 +7072,7 @@
         <v>3.4412789999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -6245,7 +7080,7 @@
         <v>2.1504432E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>4.5199999999999998E-4</v>
       </c>
@@ -6253,7 +7088,7 @@
         <v>2.3981708000000001E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>9.7400000000000004E-4</v>
       </c>
@@ -6261,7 +7096,7 @@
         <v>3.5220978E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3.5399999999999999E-4</v>
       </c>
@@ -6269,7 +7104,7 @@
         <v>2.1239320999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>4.9600000000000002E-4</v>
       </c>
@@ -6277,7 +7112,7 @@
         <v>2.5130197E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1E-3</v>
       </c>
@@ -6285,7 +7120,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -6293,7 +7128,7 @@
         <v>2.832434E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>7.2599999999999997E-4</v>
       </c>
@@ -6301,7 +7136,7 @@
         <v>3.0407673E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>4.3800000000000002E-4</v>
       </c>
@@ -6309,7 +7144,7 @@
         <v>2.3612530999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>9.9299999999999996E-4</v>
       </c>
@@ -6317,7 +7152,7 @@
         <v>3.5560954999999998E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>5.3399999999999997E-4</v>
       </c>
@@ -6325,7 +7160,7 @@
         <v>2.6075081999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>5.9800000000000001E-4</v>
       </c>
@@ -6333,7 +7168,7 @@
         <v>2.7595735E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1E-3</v>
       </c>
@@ -6341,7 +7176,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>1E-3</v>
       </c>
@@ -6349,7 +7184,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>9.9299999999999996E-4</v>
       </c>
@@ -6357,7 +7192,7 @@
         <v>3.5560954999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>6.8400000000000004E-4</v>
       </c>
@@ -6365,7 +7200,7 @@
         <v>2.9500156E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>3.6299999999999999E-4</v>
       </c>
@@ -6373,7 +7208,7 @@
         <v>2.1501472000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>4.9100000000000001E-4</v>
       </c>
@@ -6381,7 +7216,7 @@
         <v>2.5010849000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>1E-3</v>
       </c>
@@ -6389,7 +7224,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>4.6999999999999999E-4</v>
       </c>
@@ -6397,7 +7232,7 @@
         <v>2.4460075000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>7.9000000000000001E-4</v>
       </c>
@@ -6405,7 +7240,7 @@
         <v>3.1721304999999998E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>4.3800000000000002E-4</v>
       </c>
@@ -6413,7 +7248,7 @@
         <v>2.3612530999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>6.0899999999999995E-4</v>
       </c>
@@ -6421,7 +7256,7 @@
         <v>2.7839197E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>3.7399999999999998E-4</v>
       </c>
@@ -6429,7 +7264,7 @@
         <v>2.1815978999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>6.3000000000000003E-4</v>
       </c>
@@ -6437,7 +7272,7 @@
         <v>2.832434E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>7.2599999999999997E-4</v>
       </c>
@@ -6445,7 +7280,7 @@
         <v>3.0407673E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>7.6900000000000004E-4</v>
       </c>
@@ -6453,7 +7288,7 @@
         <v>3.1288877999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>1E-3</v>
       </c>
@@ -6461,7 +7296,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>1E-3</v>
       </c>
@@ -6469,7 +7304,7 @@
         <v>3.5682482000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>4.9100000000000001E-4</v>
       </c>
@@ -6477,7 +7312,7 @@
         <v>2.5010849000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>4.06E-4</v>
       </c>
@@ -6485,7 +7320,7 @@
         <v>2.2730608999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>3.5199999999999999E-4</v>
       </c>
@@ -6493,7 +7328,7 @@
         <v>2.1182295E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>3.9500000000000001E-4</v>
       </c>
@@ -6501,7 +7336,7 @@
         <v>2.2428930999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>1E-3</v>
       </c>
